--- a/Raw Data/flights.xlsx
+++ b/Raw Data/flights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C174B8-AA8F-4947-A23E-5CA1FEA0579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04AEBD-7A26-4A7C-821D-77CD9A036B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="47">
   <si>
     <t>Flight Number</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Aircraft</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -459,7 +465,7 @@
     <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +496,14 @@
       <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -514,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -537,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -560,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -583,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -606,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -629,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -652,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -675,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -698,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -721,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -744,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -767,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -790,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -813,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>

--- a/Raw Data/flights.xlsx
+++ b/Raw Data/flights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04AEBD-7A26-4A7C-821D-77CD9A036B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6570D1-22D1-4128-8E96-AA089176FE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="46">
   <si>
     <t>Flight Number</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Actual Arr Time</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
   </si>
   <si>
     <t>X</t>
@@ -447,10 +444,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -465,7 +462,7 @@
     <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,11 +496,8 @@
       <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -526,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -549,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -572,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -595,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -618,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -641,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -664,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -687,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -710,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -733,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -756,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -779,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -802,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -825,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
